--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
       <c r="B2" t="n">
-        <v>136.5604440757782</v>
+        <v>142.068152908421</v>
       </c>
       <c r="C2" t="n">
-        <v>55.73861234865603</v>
+        <v>54.87902397993597</v>
       </c>
       <c r="D2" t="n">
-        <v>228.9641303374276</v>
+        <v>235.8918386898118</v>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44736</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B3" t="n">
-        <v>78.69549134479436</v>
+        <v>139.1233702474247</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.663786351084383</v>
+        <v>49.24849522892678</v>
       </c>
       <c r="D3" t="n">
-        <v>167.0567592001901</v>
+        <v>227.2615361844186</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44736</v>
@@ -513,99 +513,99 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44775</v>
+        <v>44743</v>
       </c>
       <c r="B4" t="n">
-        <v>132.2271386428049</v>
+        <v>77.2626737635812</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5430298644922</v>
+        <v>-9.913717935725478</v>
       </c>
       <c r="D4" t="n">
-        <v>220.0060833731478</v>
+        <v>162.9691384299603</v>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44768</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B5" t="n">
-        <v>160.4789931902012</v>
+        <v>133.2776348655941</v>
       </c>
       <c r="C5" t="n">
-        <v>70.35333389246415</v>
+        <v>48.91452023688602</v>
       </c>
       <c r="D5" t="n">
-        <v>248.7371761549268</v>
+        <v>221.8450537167461</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B6" t="n">
-        <v>165.8781853418064</v>
+        <v>161.6050212901259</v>
       </c>
       <c r="C6" t="n">
-        <v>77.0303646818215</v>
+        <v>72.79061534730788</v>
       </c>
       <c r="D6" t="n">
-        <v>259.8714191014253</v>
+        <v>247.1495841009618</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44799</v>
+        <v>44789</v>
       </c>
       <c r="B7" t="n">
-        <v>69.40849226003502</v>
+        <v>163.9426842289984</v>
       </c>
       <c r="C7" t="n">
-        <v>-26.80741459937659</v>
+        <v>82.3703140980697</v>
       </c>
       <c r="D7" t="n">
-        <v>155.0641795756077</v>
+        <v>246.2309204130894</v>
       </c>
       <c r="E7" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="B8" t="n">
-        <v>121.5419404563392</v>
+        <v>68.17038553008361</v>
       </c>
       <c r="C8" t="n">
-        <v>36.14507608468413</v>
+        <v>-16.93691152686679</v>
       </c>
       <c r="D8" t="n">
-        <v>205.9669480563138</v>
+        <v>158.4456249244205</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44796</v>
@@ -613,39 +613,39 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B9" t="n">
-        <v>92.80806991044003</v>
+        <v>123.9315076216529</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.778966033324807</v>
+        <v>31.84050834218387</v>
       </c>
       <c r="D9" t="n">
-        <v>185.1895035256842</v>
+        <v>214.0262573471013</v>
       </c>
       <c r="E9" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B10" t="n">
-        <v>143.3681162311221</v>
+        <v>91.06792328749211</v>
       </c>
       <c r="C10" t="n">
-        <v>54.84375777874986</v>
+        <v>-3.646751403779409</v>
       </c>
       <c r="D10" t="n">
-        <v>237.3649153240971</v>
+        <v>181.2194999494754</v>
       </c>
       <c r="E10" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>44803</v>
@@ -653,199 +653,199 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B11" t="n">
-        <v>163.8184897404589</v>
+        <v>144.5690728981368</v>
       </c>
       <c r="C11" t="n">
-        <v>72.85832500164038</v>
+        <v>53.67688734482972</v>
       </c>
       <c r="D11" t="n">
-        <v>254.305157655234</v>
+        <v>242.4351229928793</v>
       </c>
       <c r="E11" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B12" t="n">
-        <v>181.9063009083155</v>
+        <v>164.680334259967</v>
       </c>
       <c r="C12" t="n">
-        <v>93.77857221709324</v>
+        <v>72.45421683454207</v>
       </c>
       <c r="D12" t="n">
-        <v>278.1555279864805</v>
+        <v>260.7092507293713</v>
       </c>
       <c r="E12" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B13" t="n">
-        <v>189.2111629022472</v>
+        <v>182.1746511194155</v>
       </c>
       <c r="C13" t="n">
-        <v>90.93287574901157</v>
+        <v>86.79438641158556</v>
       </c>
       <c r="D13" t="n">
-        <v>288.2240796022767</v>
+        <v>269.3950972086518</v>
       </c>
       <c r="E13" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B14" t="n">
-        <v>194.8434556785726</v>
+        <v>187.3872289190693</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0348317356223</v>
+        <v>92.93420315052646</v>
       </c>
       <c r="D14" t="n">
-        <v>286.9223173157542</v>
+        <v>285.5175730125069</v>
       </c>
       <c r="E14" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B15" t="n">
-        <v>207.4924550481252</v>
+        <v>194.9360772945699</v>
       </c>
       <c r="C15" t="n">
-        <v>112.4633169046555</v>
+        <v>98.66549753491752</v>
       </c>
       <c r="D15" t="n">
-        <v>298.5653874606733</v>
+        <v>293.7265384164549</v>
       </c>
       <c r="E15" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B16" t="n">
-        <v>191.3946530287342</v>
+        <v>209.3128366267306</v>
       </c>
       <c r="C16" t="n">
-        <v>97.70951365330323</v>
+        <v>114.4959023105668</v>
       </c>
       <c r="D16" t="n">
-        <v>288.2859469283642</v>
+        <v>299.9987995529832</v>
       </c>
       <c r="E16" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B17" t="n">
-        <v>187.9717823206083</v>
+        <v>190.5777367945183</v>
       </c>
       <c r="C17" t="n">
-        <v>92.65519090623089</v>
+        <v>102.4826193457207</v>
       </c>
       <c r="D17" t="n">
-        <v>276.3089935368833</v>
+        <v>285.553395387176</v>
       </c>
       <c r="E17" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B18" t="n">
-        <v>81.62649189639023</v>
+        <v>183.3684587113995</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.668821334474403</v>
+        <v>86.05852419707976</v>
       </c>
       <c r="D18" t="n">
-        <v>178.7307822537009</v>
+        <v>266.8103213363744</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B19" t="n">
-        <v>138.6669465450632</v>
+        <v>79.47986868715483</v>
       </c>
       <c r="C19" t="n">
-        <v>41.24735444169738</v>
+        <v>-18.7779156441428</v>
       </c>
       <c r="D19" t="n">
-        <v>230.9019128728635</v>
+        <v>170.6289736096561</v>
       </c>
       <c r="E19" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B20" t="n">
-        <v>194.3027277737806</v>
+        <v>136.0564485719419</v>
       </c>
       <c r="C20" t="n">
-        <v>99.18452555340339</v>
+        <v>48.49628320012457</v>
       </c>
       <c r="D20" t="n">
-        <v>290.1297504179688</v>
+        <v>234.3530447623719</v>
       </c>
       <c r="E20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44866</v>
@@ -853,179 +853,179 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B21" t="n">
-        <v>219.5696708665541</v>
+        <v>195.4791464460029</v>
       </c>
       <c r="C21" t="n">
-        <v>128.2504053583028</v>
+        <v>97.90787358392905</v>
       </c>
       <c r="D21" t="n">
-        <v>316.223849523849</v>
+        <v>288.9851669572452</v>
       </c>
       <c r="E21" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B22" t="n">
-        <v>241.3946962361011</v>
+        <v>220.2938781063837</v>
       </c>
       <c r="C22" t="n">
-        <v>142.6336787221773</v>
+        <v>123.4688411483746</v>
       </c>
       <c r="D22" t="n">
-        <v>327.0351113369638</v>
+        <v>308.7439158568154</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B23" t="n">
-        <v>186.6178143826791</v>
+        <v>238.5510842724153</v>
       </c>
       <c r="C23" t="n">
-        <v>87.65770561074373</v>
+        <v>147.429823100074</v>
       </c>
       <c r="D23" t="n">
-        <v>278.9064452721584</v>
+        <v>334.5120481347365</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B24" t="n">
-        <v>135.4175551971381</v>
+        <v>182.7976916091285</v>
       </c>
       <c r="C24" t="n">
-        <v>43.21515594344626</v>
+        <v>82.87911261607692</v>
       </c>
       <c r="D24" t="n">
-        <v>225.5219932375894</v>
+        <v>274.6851360621711</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B25" t="n">
-        <v>168.5052044450856</v>
+        <v>132.3678430389888</v>
       </c>
       <c r="C25" t="n">
-        <v>79.37263210882705</v>
+        <v>43.49705588929572</v>
       </c>
       <c r="D25" t="n">
-        <v>263.1079867904884</v>
+        <v>221.6156115715157</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B26" t="n">
-        <v>276.3675848141235</v>
+        <v>171.3782081721158</v>
       </c>
       <c r="C26" t="n">
-        <v>188.0079395971198</v>
+        <v>77.53081660375777</v>
       </c>
       <c r="D26" t="n">
-        <v>371.1837241919959</v>
+        <v>265.2367667863999</v>
       </c>
       <c r="E26" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="B27" t="n">
-        <v>233.4210430528744</v>
+        <v>277.4447782622407</v>
       </c>
       <c r="C27" t="n">
-        <v>142.1787051811784</v>
+        <v>185.5009679140608</v>
       </c>
       <c r="D27" t="n">
-        <v>333.9590355867335</v>
+        <v>370.401693001903</v>
       </c>
       <c r="E27" t="n">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44936</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44980</v>
+        <v>44943</v>
       </c>
       <c r="B28" t="n">
-        <v>166.3813670138657</v>
+        <v>233.6625458839636</v>
       </c>
       <c r="C28" t="n">
-        <v>76.33735151690384</v>
+        <v>136.4623605292122</v>
       </c>
       <c r="D28" t="n">
-        <v>259.8901007911971</v>
+        <v>319.8365930960988</v>
       </c>
       <c r="E28" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44978</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B29" t="n">
-        <v>244.4400631991894</v>
+        <v>163.0227637389299</v>
       </c>
       <c r="C29" t="n">
-        <v>148.1842937085544</v>
+        <v>69.42668274947233</v>
       </c>
       <c r="D29" t="n">
-        <v>339.2038805177381</v>
+        <v>262.2984286606628</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>44978</v>
@@ -1033,39 +1033,39 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B30" t="n">
-        <v>211.7322050561449</v>
+        <v>244.6712954617025</v>
       </c>
       <c r="C30" t="n">
-        <v>121.3762758627023</v>
+        <v>155.9167583465203</v>
       </c>
       <c r="D30" t="n">
-        <v>305.7770737298937</v>
+        <v>345.2027653024433</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>313.3999211177817</v>
+        <v>208.7213881393445</v>
       </c>
       <c r="C31" t="n">
-        <v>213.8061384319606</v>
+        <v>113.6787865774034</v>
       </c>
       <c r="D31" t="n">
-        <v>413.9243944196463</v>
+        <v>312.756077977033</v>
       </c>
       <c r="E31" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>44985</v>
@@ -1073,81 +1073,101 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>217.1058045507326</v>
+        <v>310.9502091212395</v>
       </c>
       <c r="C32" t="n">
-        <v>113.1760638827421</v>
+        <v>217.9906145001426</v>
       </c>
       <c r="D32" t="n">
-        <v>316.2538901985106</v>
+        <v>412.9165408600273</v>
       </c>
       <c r="E32" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45012</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B33" t="n">
-        <v>217.9877238495065</v>
+        <v>216.757506671093</v>
       </c>
       <c r="C33" t="n">
-        <v>121.1006539350041</v>
+        <v>121.5426770357258</v>
       </c>
       <c r="D33" t="n">
-        <v>323.1311496524999</v>
+        <v>317.9884392384523</v>
       </c>
       <c r="E33" t="n">
         <v>250</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B34" t="n">
-        <v>352.9597889320696</v>
+        <v>233.7537901814499</v>
       </c>
       <c r="C34" t="n">
-        <v>262.4840418665549</v>
+        <v>125.5973297682536</v>
       </c>
       <c r="D34" t="n">
-        <v>451.7129325730868</v>
+        <v>331.075127346095</v>
       </c>
       <c r="E34" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B35" t="n">
+        <v>375.1705036898738</v>
+      </c>
+      <c r="C35" t="n">
+        <v>277.3004553439403</v>
+      </c>
+      <c r="D35" t="n">
+        <v>467.6945423935134</v>
+      </c>
+      <c r="E35" t="n">
+        <v>320</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B35" t="n">
-        <v>513.7868565294327</v>
-      </c>
-      <c r="C35" t="n">
-        <v>412.9342492281949</v>
-      </c>
-      <c r="D35" t="n">
-        <v>606.9701781592321</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="B36" t="n">
+        <v>522.765825901619</v>
+      </c>
+      <c r="C36" t="n">
+        <v>425.8359143462608</v>
+      </c>
+      <c r="D36" t="n">
+        <v>620.6789713071601</v>
+      </c>
+      <c r="E36" t="n">
         <v>540</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F36" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -1217,22 +1237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1064.387201678879</v>
+        <v>1470.929057861721</v>
       </c>
       <c r="C2" t="n">
-        <v>32.6249475352663</v>
+        <v>38.35269296753125</v>
       </c>
       <c r="D2" t="n">
-        <v>32.6220868439435</v>
+        <v>34.88640227911029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1208750756039204</v>
+        <v>0.1234542122068947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.128049104601974</v>
+        <v>0.132969973315628</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1252018273519717</v>
+        <v>0.1227774891204128</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1243,22 +1263,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1086.328962404719</v>
+        <v>1436.391372410146</v>
       </c>
       <c r="C3" t="n">
-        <v>32.95950488712958</v>
+        <v>37.89975425263528</v>
       </c>
       <c r="D3" t="n">
-        <v>32.95426889134044</v>
+        <v>35.58334693976354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1366144387128375</v>
+        <v>0.1439315352397132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1315767817970696</v>
+        <v>0.1724078240308557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1446402697674587</v>
+        <v>0.1497578441024609</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1269,22 +1289,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16768.07510162284</v>
+        <v>16694.84795244022</v>
       </c>
       <c r="C4" t="n">
-        <v>129.4916024366941</v>
+        <v>129.2085444250504</v>
       </c>
       <c r="D4" t="n">
-        <v>107.0456473576833</v>
+        <v>106.3848819734277</v>
       </c>
       <c r="E4" t="n">
-        <v>1.113576686074596</v>
+        <v>1.09741187941944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5764969117990384</v>
+        <v>0.5843158444764264</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7472793258524981</v>
+        <v>0.7476729136907134</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1295,25 +1315,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11807.71507404642</v>
+        <v>6887.73625932662</v>
       </c>
       <c r="C5" t="n">
-        <v>108.6633106160788</v>
+        <v>82.99238675521158</v>
       </c>
       <c r="D5" t="n">
-        <v>85.84361687986279</v>
+        <v>65.06445293919398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8228280794649563</v>
+        <v>0.5255923821210366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2413308662456768</v>
+        <v>0.2522728794293631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5896686007464044</v>
+        <v>0.4308468179326597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -1321,25 +1341,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>6241.728586159217</v>
+        <v>1359.67799612638</v>
       </c>
       <c r="C6" t="n">
-        <v>79.00461117022991</v>
+        <v>36.87381179273958</v>
       </c>
       <c r="D6" t="n">
-        <v>52.95290379517163</v>
+        <v>33.10953605233316</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4826488437497568</v>
+        <v>0.1987518716213907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2413308662456768</v>
+        <v>0.2270923875143074</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3731015822100905</v>
+        <v>0.2230045425714846</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1347,22 +1367,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>12444.25963122994</v>
+        <v>12409.33340337862</v>
       </c>
       <c r="C7" t="n">
-        <v>111.5538418488128</v>
+        <v>111.3971875918715</v>
       </c>
       <c r="D7" t="n">
-        <v>92.63885264007597</v>
+        <v>91.8795521728254</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4893532607770782</v>
+        <v>0.4852287732002865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3609693643439718</v>
+        <v>0.3740953477813821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4360313037738444</v>
+        <v>0.4334793799964582</v>
       </c>
       <c r="H7" t="n">
         <v>0.5416666666666666</v>

--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44733</v>
       </c>
       <c r="B2" t="n">
-        <v>142.068152908421</v>
+        <v>142.0683188157415</v>
       </c>
       <c r="C2" t="n">
-        <v>54.87902397993597</v>
+        <v>58.70921329546674</v>
       </c>
       <c r="D2" t="n">
-        <v>235.8918386898118</v>
+        <v>234.9725921239293</v>
       </c>
       <c r="E2" t="n">
         <v>190</v>
@@ -496,13 +496,13 @@
         <v>44740</v>
       </c>
       <c r="B3" t="n">
-        <v>139.1233702474247</v>
+        <v>139.1389630474633</v>
       </c>
       <c r="C3" t="n">
-        <v>49.24849522892678</v>
+        <v>54.45905330756578</v>
       </c>
       <c r="D3" t="n">
-        <v>227.2615361844186</v>
+        <v>228.1421939163006</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -516,13 +516,13 @@
         <v>44743</v>
       </c>
       <c r="B4" t="n">
-        <v>77.2626737635812</v>
+        <v>77.27601622472987</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.913717935725478</v>
+        <v>-13.49179074893621</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9691384299603</v>
+        <v>171.815916546586</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -536,13 +536,13 @@
         <v>44775</v>
       </c>
       <c r="B5" t="n">
-        <v>133.2776348655941</v>
+        <v>133.2629787582405</v>
       </c>
       <c r="C5" t="n">
-        <v>48.91452023688602</v>
+        <v>46.95272143540137</v>
       </c>
       <c r="D5" t="n">
-        <v>221.8450537167461</v>
+        <v>224.0914310635771</v>
       </c>
       <c r="E5" t="n">
         <v>150</v>
@@ -556,13 +556,13 @@
         <v>44782</v>
       </c>
       <c r="B6" t="n">
-        <v>161.6050212901259</v>
+        <v>161.508713505491</v>
       </c>
       <c r="C6" t="n">
-        <v>72.79061534730788</v>
+        <v>77.26878547171403</v>
       </c>
       <c r="D6" t="n">
-        <v>247.1495841009618</v>
+        <v>251.4054112950176</v>
       </c>
       <c r="E6" t="n">
         <v>270</v>
@@ -576,13 +576,13 @@
         <v>44789</v>
       </c>
       <c r="B7" t="n">
-        <v>163.9426842289984</v>
+        <v>163.9421521563905</v>
       </c>
       <c r="C7" t="n">
-        <v>82.3703140980697</v>
+        <v>75.72077179677677</v>
       </c>
       <c r="D7" t="n">
-        <v>246.2309204130894</v>
+        <v>256.1253807767546</v>
       </c>
       <c r="E7" t="n">
         <v>70</v>
@@ -596,13 +596,13 @@
         <v>44799</v>
       </c>
       <c r="B8" t="n">
-        <v>68.17038553008361</v>
+        <v>68.17034798200611</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.93691152686679</v>
+        <v>-23.73275903478813</v>
       </c>
       <c r="D8" t="n">
-        <v>158.4456249244205</v>
+        <v>156.0738022134704</v>
       </c>
       <c r="E8" t="n">
         <v>260</v>
@@ -616,13 +616,13 @@
         <v>44803</v>
       </c>
       <c r="B9" t="n">
-        <v>123.9315076216529</v>
+        <v>123.9315960887277</v>
       </c>
       <c r="C9" t="n">
-        <v>31.84050834218387</v>
+        <v>37.4383360511427</v>
       </c>
       <c r="D9" t="n">
-        <v>214.0262573471013</v>
+        <v>218.5817508664493</v>
       </c>
       <c r="E9" t="n">
         <v>90</v>
@@ -636,13 +636,13 @@
         <v>44806</v>
       </c>
       <c r="B10" t="n">
-        <v>91.06792328749211</v>
+        <v>92.81409107292689</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.646751403779409</v>
+        <v>0.7813848335735285</v>
       </c>
       <c r="D10" t="n">
-        <v>181.2194999494754</v>
+        <v>189.5180773530602</v>
       </c>
       <c r="E10" t="n">
         <v>160</v>
@@ -656,13 +656,13 @@
         <v>44810</v>
       </c>
       <c r="B11" t="n">
-        <v>144.5690728981368</v>
+        <v>145.436183244811</v>
       </c>
       <c r="C11" t="n">
-        <v>53.67688734482972</v>
+        <v>51.44016733670669</v>
       </c>
       <c r="D11" t="n">
-        <v>242.4351229928793</v>
+        <v>236.9235930333727</v>
       </c>
       <c r="E11" t="n">
         <v>220</v>
@@ -676,13 +676,13 @@
         <v>44817</v>
       </c>
       <c r="B12" t="n">
-        <v>164.680334259967</v>
+        <v>164.7250555497677</v>
       </c>
       <c r="C12" t="n">
-        <v>72.45421683454207</v>
+        <v>79.4458865308535</v>
       </c>
       <c r="D12" t="n">
-        <v>260.7092507293713</v>
+        <v>257.9088805075092</v>
       </c>
       <c r="E12" t="n">
         <v>340</v>
@@ -696,13 +696,13 @@
         <v>44824</v>
       </c>
       <c r="B13" t="n">
-        <v>182.1746511194155</v>
+        <v>181.9584000224137</v>
       </c>
       <c r="C13" t="n">
-        <v>86.79438641158556</v>
+        <v>91.64350827905915</v>
       </c>
       <c r="D13" t="n">
-        <v>269.3950972086518</v>
+        <v>271.3328010468243</v>
       </c>
       <c r="E13" t="n">
         <v>280</v>
@@ -716,13 +716,13 @@
         <v>44831</v>
       </c>
       <c r="B14" t="n">
-        <v>187.3872289190693</v>
+        <v>187.3802081102865</v>
       </c>
       <c r="C14" t="n">
-        <v>92.93420315052646</v>
+        <v>96.61260280923247</v>
       </c>
       <c r="D14" t="n">
-        <v>285.5175730125069</v>
+        <v>279.8880222705967</v>
       </c>
       <c r="E14" t="n">
         <v>220</v>
@@ -736,13 +736,13 @@
         <v>44838</v>
       </c>
       <c r="B15" t="n">
-        <v>194.9360772945699</v>
+        <v>194.5644085686715</v>
       </c>
       <c r="C15" t="n">
-        <v>98.66549753491752</v>
+        <v>107.5712697292812</v>
       </c>
       <c r="D15" t="n">
-        <v>293.7265384164549</v>
+        <v>290.0070224557949</v>
       </c>
       <c r="E15" t="n">
         <v>310</v>
@@ -756,13 +756,13 @@
         <v>44845</v>
       </c>
       <c r="B16" t="n">
-        <v>209.3128366267306</v>
+        <v>209.4692460310375</v>
       </c>
       <c r="C16" t="n">
-        <v>114.4959023105668</v>
+        <v>113.4843444464707</v>
       </c>
       <c r="D16" t="n">
-        <v>299.9987995529832</v>
+        <v>304.192580473201</v>
       </c>
       <c r="E16" t="n">
         <v>270</v>
@@ -776,13 +776,13 @@
         <v>44852</v>
       </c>
       <c r="B17" t="n">
-        <v>190.5777367945183</v>
+        <v>190.6501208237781</v>
       </c>
       <c r="C17" t="n">
-        <v>102.4826193457207</v>
+        <v>95.66801021181125</v>
       </c>
       <c r="D17" t="n">
-        <v>285.553395387176</v>
+        <v>280.3761988388982</v>
       </c>
       <c r="E17" t="n">
         <v>420</v>
@@ -796,13 +796,13 @@
         <v>44859</v>
       </c>
       <c r="B18" t="n">
-        <v>183.3684587113995</v>
+        <v>183.6950103120036</v>
       </c>
       <c r="C18" t="n">
-        <v>86.05852419707976</v>
+        <v>85.18869349259768</v>
       </c>
       <c r="D18" t="n">
-        <v>266.8103213363744</v>
+        <v>275.072415309957</v>
       </c>
       <c r="E18" t="n">
         <v>380</v>
@@ -816,13 +816,13 @@
         <v>44865</v>
       </c>
       <c r="B19" t="n">
-        <v>79.47986868715483</v>
+        <v>81.21111313750811</v>
       </c>
       <c r="C19" t="n">
-        <v>-18.7779156441428</v>
+        <v>-15.01312568039146</v>
       </c>
       <c r="D19" t="n">
-        <v>170.6289736096561</v>
+        <v>170.8157691919383</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -836,13 +836,13 @@
         <v>44869</v>
       </c>
       <c r="B20" t="n">
-        <v>136.0564485719419</v>
+        <v>137.4587624386772</v>
       </c>
       <c r="C20" t="n">
-        <v>48.49628320012457</v>
+        <v>44.79507557396806</v>
       </c>
       <c r="D20" t="n">
-        <v>234.3530447623719</v>
+        <v>237.9769657958311</v>
       </c>
       <c r="E20" t="n">
         <v>130</v>
@@ -856,13 +856,13 @@
         <v>44873</v>
       </c>
       <c r="B21" t="n">
-        <v>195.4791464460029</v>
+        <v>196.2905852747288</v>
       </c>
       <c r="C21" t="n">
-        <v>97.90787358392905</v>
+        <v>102.1008976620137</v>
       </c>
       <c r="D21" t="n">
-        <v>288.9851669572452</v>
+        <v>292.5839569011511</v>
       </c>
       <c r="E21" t="n">
         <v>160</v>
@@ -876,13 +876,13 @@
         <v>44880</v>
       </c>
       <c r="B22" t="n">
-        <v>220.2938781063837</v>
+        <v>221.0237907204327</v>
       </c>
       <c r="C22" t="n">
-        <v>123.4688411483746</v>
+        <v>133.3322750136233</v>
       </c>
       <c r="D22" t="n">
-        <v>308.7439158568154</v>
+        <v>323.0287407493915</v>
       </c>
       <c r="E22" t="n">
         <v>300</v>
@@ -896,13 +896,13 @@
         <v>44887</v>
       </c>
       <c r="B23" t="n">
-        <v>238.5510842724153</v>
+        <v>238.5001201535387</v>
       </c>
       <c r="C23" t="n">
-        <v>147.429823100074</v>
+        <v>145.4143652586343</v>
       </c>
       <c r="D23" t="n">
-        <v>334.5120481347365</v>
+        <v>331.9590516129763</v>
       </c>
       <c r="E23" t="n">
         <v>200</v>
@@ -916,13 +916,13 @@
         <v>44894</v>
       </c>
       <c r="B24" t="n">
-        <v>182.7976916091285</v>
+        <v>182.9311397636584</v>
       </c>
       <c r="C24" t="n">
-        <v>82.87911261607692</v>
+        <v>91.20586590068336</v>
       </c>
       <c r="D24" t="n">
-        <v>274.6851360621711</v>
+        <v>274.9507660299834</v>
       </c>
       <c r="E24" t="n">
         <v>130</v>
@@ -936,13 +936,13 @@
         <v>44901</v>
       </c>
       <c r="B25" t="n">
-        <v>132.3678430389888</v>
+        <v>132.3794257929451</v>
       </c>
       <c r="C25" t="n">
-        <v>43.49705588929572</v>
+        <v>32.66541046877925</v>
       </c>
       <c r="D25" t="n">
-        <v>221.6156115715157</v>
+        <v>226.4557923175129</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
@@ -956,13 +956,13 @@
         <v>44908</v>
       </c>
       <c r="B26" t="n">
-        <v>171.3782081721158</v>
+        <v>172.2083719169123</v>
       </c>
       <c r="C26" t="n">
-        <v>77.53081660375777</v>
+        <v>78.39543149857971</v>
       </c>
       <c r="D26" t="n">
-        <v>265.2367667863999</v>
+        <v>263.9866683014645</v>
       </c>
       <c r="E26" t="n">
         <v>200</v>
@@ -976,13 +976,13 @@
         <v>44915</v>
       </c>
       <c r="B27" t="n">
-        <v>277.4447782622407</v>
+        <v>277.5049881174003</v>
       </c>
       <c r="C27" t="n">
-        <v>185.5009679140608</v>
+        <v>181.8560606773869</v>
       </c>
       <c r="D27" t="n">
-        <v>370.401693001903</v>
+        <v>362.2721706223401</v>
       </c>
       <c r="E27" t="n">
         <v>490</v>
@@ -996,13 +996,13 @@
         <v>44943</v>
       </c>
       <c r="B28" t="n">
-        <v>233.6625458839636</v>
+        <v>231.8617424559423</v>
       </c>
       <c r="C28" t="n">
-        <v>136.4623605292122</v>
+        <v>129.984605882105</v>
       </c>
       <c r="D28" t="n">
-        <v>319.8365930960988</v>
+        <v>314.7967299512352</v>
       </c>
       <c r="E28" t="n">
         <v>110</v>
@@ -1016,13 +1016,13 @@
         <v>44980</v>
       </c>
       <c r="B29" t="n">
-        <v>163.0227637389299</v>
+        <v>163.1222239777539</v>
       </c>
       <c r="C29" t="n">
-        <v>69.42668274947233</v>
+        <v>68.58633104468373</v>
       </c>
       <c r="D29" t="n">
-        <v>262.2984286606628</v>
+        <v>257.4309231935529</v>
       </c>
       <c r="E29" t="n">
         <v>200</v>
@@ -1036,13 +1036,13 @@
         <v>44985</v>
       </c>
       <c r="B30" t="n">
-        <v>244.6712954617025</v>
+        <v>244.6739963150864</v>
       </c>
       <c r="C30" t="n">
-        <v>155.9167583465203</v>
+        <v>157.3256875540117</v>
       </c>
       <c r="D30" t="n">
-        <v>345.2027653024433</v>
+        <v>333.4589354944537</v>
       </c>
       <c r="E30" t="n">
         <v>80</v>
@@ -1056,13 +1056,13 @@
         <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>208.7213881393445</v>
+        <v>206.7703880163776</v>
       </c>
       <c r="C31" t="n">
-        <v>113.6787865774034</v>
+        <v>109.7630588166411</v>
       </c>
       <c r="D31" t="n">
-        <v>312.756077977033</v>
+        <v>301.3410751740208</v>
       </c>
       <c r="E31" t="n">
         <v>50</v>
@@ -1076,13 +1076,13 @@
         <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>310.9502091212395</v>
+        <v>308.0743516104314</v>
       </c>
       <c r="C32" t="n">
-        <v>217.9906145001426</v>
+        <v>215.8720638566607</v>
       </c>
       <c r="D32" t="n">
-        <v>412.9165408600273</v>
+        <v>403.9706315729408</v>
       </c>
       <c r="E32" t="n">
         <v>190</v>
@@ -1096,13 +1096,13 @@
         <v>45013</v>
       </c>
       <c r="B33" t="n">
-        <v>216.757506671093</v>
+        <v>215.9861276061611</v>
       </c>
       <c r="C33" t="n">
-        <v>121.5426770357258</v>
+        <v>116.7151341454117</v>
       </c>
       <c r="D33" t="n">
-        <v>317.9884392384523</v>
+        <v>315.7997098513164</v>
       </c>
       <c r="E33" t="n">
         <v>250</v>
@@ -1116,13 +1116,13 @@
         <v>45020</v>
       </c>
       <c r="B34" t="n">
-        <v>233.7537901814499</v>
+        <v>233.6758777867694</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5973297682536</v>
+        <v>144.4467144443899</v>
       </c>
       <c r="D34" t="n">
-        <v>331.075127346095</v>
+        <v>333.3930677852585</v>
       </c>
       <c r="E34" t="n">
         <v>250</v>
@@ -1136,13 +1136,13 @@
         <v>45027</v>
       </c>
       <c r="B35" t="n">
-        <v>375.1705036898738</v>
+        <v>375.1638248957554</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3004553439403</v>
+        <v>279.3597582734058</v>
       </c>
       <c r="D35" t="n">
-        <v>467.6945423935134</v>
+        <v>476.4395463235242</v>
       </c>
       <c r="E35" t="n">
         <v>320</v>
@@ -1156,13 +1156,13 @@
         <v>45040</v>
       </c>
       <c r="B36" t="n">
-        <v>522.765825901619</v>
+        <v>525.6937682634192</v>
       </c>
       <c r="C36" t="n">
-        <v>425.8359143462608</v>
+        <v>426.9832026171529</v>
       </c>
       <c r="D36" t="n">
-        <v>620.6789713071601</v>
+        <v>620.5497200537891</v>
       </c>
       <c r="E36" t="n">
         <v>540</v>
@@ -1237,22 +1237,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1470.929057861721</v>
+        <v>1488.822686128804</v>
       </c>
       <c r="C2" t="n">
-        <v>38.35269296753125</v>
+        <v>38.58526514265262</v>
       </c>
       <c r="D2" t="n">
-        <v>34.88640227911029</v>
+        <v>35.1672731676083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1234542122068947</v>
+        <v>0.1245796437425046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.132969973315628</v>
+        <v>0.1360554895753557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1227774891204128</v>
+        <v>0.1240647646404816</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1263,22 +1263,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1436.391372410146</v>
+        <v>1445.871912201519</v>
       </c>
       <c r="C3" t="n">
-        <v>37.89975425263528</v>
+        <v>38.02462244653481</v>
       </c>
       <c r="D3" t="n">
-        <v>35.58334693976354</v>
+        <v>35.73744078582089</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1439315352397132</v>
+        <v>0.1445160558654133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1724078240308557</v>
+        <v>0.1723869527992356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1497578441024609</v>
+        <v>0.1504148261308174</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1289,22 +1289,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16694.84795244022</v>
+        <v>16486.28736190595</v>
       </c>
       <c r="C4" t="n">
-        <v>129.2085444250504</v>
+        <v>128.3989383207897</v>
       </c>
       <c r="D4" t="n">
-        <v>106.3848819734277</v>
+        <v>105.8111778500304</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09741187941944</v>
+        <v>1.087625285179813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5843158444764264</v>
+        <v>0.5788591423547841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7476729136907134</v>
+        <v>0.7443648312311278</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1315,22 +1315,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6887.73625932662</v>
+        <v>6817.785921297308</v>
       </c>
       <c r="C5" t="n">
-        <v>82.99238675521158</v>
+        <v>82.56988507499152</v>
       </c>
       <c r="D5" t="n">
-        <v>65.06445293919398</v>
+        <v>64.86796532894186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5255923821210366</v>
+        <v>0.5223010174200594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2522728794293631</v>
+        <v>0.2522720062329392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4308468179326597</v>
+        <v>0.4297069977364332</v>
       </c>
       <c r="H5" t="n">
         <v>0.8333333333333334</v>
@@ -1341,22 +1341,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1359.67799612638</v>
+        <v>1348.104978089217</v>
       </c>
       <c r="C6" t="n">
-        <v>36.87381179273958</v>
+        <v>36.71654910376541</v>
       </c>
       <c r="D6" t="n">
-        <v>33.10953605233316</v>
+        <v>32.52720166642902</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1987518716213907</v>
+        <v>0.1923106885174992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2270923875143074</v>
+        <v>0.2270057608474262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2230045425714846</v>
+        <v>0.2158078031549998</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>12409.33340337862</v>
+        <v>12346.0782614819</v>
       </c>
       <c r="C7" t="n">
-        <v>111.3971875918715</v>
+        <v>111.112907717699</v>
       </c>
       <c r="D7" t="n">
-        <v>91.8795521728254</v>
+        <v>91.50087626273428</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4852287732002865</v>
+        <v>0.4835294829351137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3740953477813821</v>
+        <v>0.3746953049520639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4334793799964582</v>
+        <v>0.4322468150784757</v>
       </c>
       <c r="H7" t="n">
         <v>0.5416666666666666</v>

--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
       <c r="B2" t="n">
-        <v>142.0683188157415</v>
+        <v>146.0333631825507</v>
       </c>
       <c r="C2" t="n">
-        <v>58.70921329546674</v>
+        <v>57.43741965563495</v>
       </c>
       <c r="D2" t="n">
-        <v>234.9725921239293</v>
+        <v>233.086517912063</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44729</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
       <c r="B3" t="n">
-        <v>139.1389630474633</v>
+        <v>133.5500044317592</v>
       </c>
       <c r="C3" t="n">
-        <v>54.45905330756578</v>
+        <v>47.69531458808044</v>
       </c>
       <c r="D3" t="n">
-        <v>228.1421939163006</v>
+        <v>226.2306978063831</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44736</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B4" t="n">
-        <v>77.27601622472987</v>
+        <v>131.9834533427545</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.49179074893621</v>
+        <v>46.93159496621963</v>
       </c>
       <c r="D4" t="n">
-        <v>171.815916546586</v>
+        <v>218.8051413432816</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44736</v>
@@ -533,99 +533,99 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44775</v>
+        <v>44743</v>
       </c>
       <c r="B5" t="n">
-        <v>133.2629787582405</v>
+        <v>71.54728809490966</v>
       </c>
       <c r="C5" t="n">
-        <v>46.95272143540137</v>
+        <v>-14.71963925573552</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0914310635771</v>
+        <v>161.4043228251466</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44768</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B6" t="n">
-        <v>161.508713505491</v>
+        <v>129.1632291168558</v>
       </c>
       <c r="C6" t="n">
-        <v>77.26878547171403</v>
+        <v>37.04874931279841</v>
       </c>
       <c r="D6" t="n">
-        <v>251.4054112950176</v>
+        <v>217.8926338858731</v>
       </c>
       <c r="E6" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B7" t="n">
-        <v>163.9421521563905</v>
+        <v>156.952149984622</v>
       </c>
       <c r="C7" t="n">
-        <v>75.72077179677677</v>
+        <v>68.95265082580896</v>
       </c>
       <c r="D7" t="n">
-        <v>256.1253807767546</v>
+        <v>241.7335640113412</v>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44799</v>
+        <v>44789</v>
       </c>
       <c r="B8" t="n">
-        <v>68.17034798200611</v>
+        <v>161.6811344707366</v>
       </c>
       <c r="C8" t="n">
-        <v>-23.73275903478813</v>
+        <v>72.46888541997019</v>
       </c>
       <c r="D8" t="n">
-        <v>156.0738022134704</v>
+        <v>254.3183624878168</v>
       </c>
       <c r="E8" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="B9" t="n">
-        <v>123.9315960887277</v>
+        <v>61.14019302033712</v>
       </c>
       <c r="C9" t="n">
-        <v>37.4383360511427</v>
+        <v>-29.14996486988387</v>
       </c>
       <c r="D9" t="n">
-        <v>218.5817508664493</v>
+        <v>156.8567221230024</v>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44796</v>
@@ -633,39 +633,39 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B10" t="n">
-        <v>92.81409107292689</v>
+        <v>117.0682434374019</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7813848335735285</v>
+        <v>25.07102033123296</v>
       </c>
       <c r="D10" t="n">
-        <v>189.5180773530602</v>
+        <v>206.4109872790137</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B11" t="n">
-        <v>145.436183244811</v>
+        <v>87.24026106948727</v>
       </c>
       <c r="C11" t="n">
-        <v>51.44016733670669</v>
+        <v>-1.336670818168425</v>
       </c>
       <c r="D11" t="n">
-        <v>236.9235930333727</v>
+        <v>173.8785372894821</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44803</v>
@@ -673,199 +673,199 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B12" t="n">
-        <v>164.7250555497677</v>
+        <v>140.5643318740525</v>
       </c>
       <c r="C12" t="n">
-        <v>79.4458865308535</v>
+        <v>47.78443147783355</v>
       </c>
       <c r="D12" t="n">
-        <v>257.9088805075092</v>
+        <v>230.8269851507874</v>
       </c>
       <c r="E12" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B13" t="n">
-        <v>181.9584000224137</v>
+        <v>161.9033128423941</v>
       </c>
       <c r="C13" t="n">
-        <v>91.64350827905915</v>
+        <v>73.99912775632652</v>
       </c>
       <c r="D13" t="n">
-        <v>271.3328010468243</v>
+        <v>254.1483621904706</v>
       </c>
       <c r="E13" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B14" t="n">
-        <v>187.3802081102865</v>
+        <v>179.4017290194754</v>
       </c>
       <c r="C14" t="n">
-        <v>96.61260280923247</v>
+        <v>91.47939585745392</v>
       </c>
       <c r="D14" t="n">
-        <v>279.8880222705967</v>
+        <v>270.4300907519504</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B15" t="n">
-        <v>194.5644085686715</v>
+        <v>184.0809620641813</v>
       </c>
       <c r="C15" t="n">
-        <v>107.5712697292812</v>
+        <v>90.6266444755493</v>
       </c>
       <c r="D15" t="n">
-        <v>290.0070224557949</v>
+        <v>269.3488107997912</v>
       </c>
       <c r="E15" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B16" t="n">
-        <v>209.4692460310375</v>
+        <v>190.056245098147</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4843444464707</v>
+        <v>91.27602564009159</v>
       </c>
       <c r="D16" t="n">
-        <v>304.192580473201</v>
+        <v>287.1135424767989</v>
       </c>
       <c r="E16" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B17" t="n">
-        <v>190.6501208237781</v>
+        <v>205.3044399535903</v>
       </c>
       <c r="C17" t="n">
-        <v>95.66801021181125</v>
+        <v>120.699496284351</v>
       </c>
       <c r="D17" t="n">
-        <v>280.3761988388982</v>
+        <v>292.0946061610315</v>
       </c>
       <c r="E17" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B18" t="n">
-        <v>183.6950103120036</v>
+        <v>188.5608814465477</v>
       </c>
       <c r="C18" t="n">
-        <v>85.18869349259768</v>
+        <v>98.7687188030083</v>
       </c>
       <c r="D18" t="n">
-        <v>275.072415309957</v>
+        <v>276.9463286381769</v>
       </c>
       <c r="E18" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B19" t="n">
-        <v>81.21111313750811</v>
+        <v>179.5690759225308</v>
       </c>
       <c r="C19" t="n">
-        <v>-15.01312568039146</v>
+        <v>86.17151669530411</v>
       </c>
       <c r="D19" t="n">
-        <v>170.8157691919383</v>
+        <v>272.2233944693157</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B20" t="n">
-        <v>137.4587624386772</v>
+        <v>76.87713049417519</v>
       </c>
       <c r="C20" t="n">
-        <v>44.79507557396806</v>
+        <v>-11.86733122193612</v>
       </c>
       <c r="D20" t="n">
-        <v>237.9769657958311</v>
+        <v>176.9406243503375</v>
       </c>
       <c r="E20" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B21" t="n">
-        <v>196.2905852747288</v>
+        <v>132.7444848764838</v>
       </c>
       <c r="C21" t="n">
-        <v>102.1008976620137</v>
+        <v>43.04042685762022</v>
       </c>
       <c r="D21" t="n">
-        <v>292.5839569011511</v>
+        <v>225.5885464082244</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44866</v>
@@ -873,179 +873,179 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B22" t="n">
-        <v>221.0237907204327</v>
+        <v>192.3252778189216</v>
       </c>
       <c r="C22" t="n">
-        <v>133.3322750136233</v>
+        <v>95.49154071547514</v>
       </c>
       <c r="D22" t="n">
-        <v>323.0287407493915</v>
+        <v>285.7529594172303</v>
       </c>
       <c r="E22" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B23" t="n">
-        <v>238.5001201535387</v>
+        <v>215.4024438250144</v>
       </c>
       <c r="C23" t="n">
-        <v>145.4143652586343</v>
+        <v>116.7371822392282</v>
       </c>
       <c r="D23" t="n">
-        <v>331.9590516129763</v>
+        <v>309.3158169090891</v>
       </c>
       <c r="E23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B24" t="n">
-        <v>182.9311397636584</v>
+        <v>237.6102938869037</v>
       </c>
       <c r="C24" t="n">
-        <v>91.20586590068336</v>
+        <v>143.5813338619559</v>
       </c>
       <c r="D24" t="n">
-        <v>274.9507660299834</v>
+        <v>332.675338462883</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B25" t="n">
-        <v>132.3794257929451</v>
+        <v>182.8954294112167</v>
       </c>
       <c r="C25" t="n">
-        <v>32.66541046877925</v>
+        <v>93.57354399527408</v>
       </c>
       <c r="D25" t="n">
-        <v>226.4557923175129</v>
+        <v>275.9668860829854</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B26" t="n">
-        <v>172.2083719169123</v>
+        <v>127.2356816825878</v>
       </c>
       <c r="C26" t="n">
-        <v>78.39543149857971</v>
+        <v>39.20115984674011</v>
       </c>
       <c r="D26" t="n">
-        <v>263.9866683014645</v>
+        <v>220.8235742064493</v>
       </c>
       <c r="E26" t="n">
         <v>200</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B27" t="n">
-        <v>277.5049881174003</v>
+        <v>170.7814491815205</v>
       </c>
       <c r="C27" t="n">
-        <v>181.8560606773869</v>
+        <v>80.96359907287237</v>
       </c>
       <c r="D27" t="n">
-        <v>362.2721706223401</v>
+        <v>266.0003194063585</v>
       </c>
       <c r="E27" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="B28" t="n">
-        <v>231.8617424559423</v>
+        <v>275.7033581040811</v>
       </c>
       <c r="C28" t="n">
-        <v>129.984605882105</v>
+        <v>179.815669317184</v>
       </c>
       <c r="D28" t="n">
-        <v>314.7967299512352</v>
+        <v>365.3789130569209</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44936</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44980</v>
+        <v>44943</v>
       </c>
       <c r="B29" t="n">
-        <v>163.1222239777539</v>
+        <v>227.9515308627072</v>
       </c>
       <c r="C29" t="n">
-        <v>68.58633104468373</v>
+        <v>138.07739410974</v>
       </c>
       <c r="D29" t="n">
-        <v>257.4309231935529</v>
+        <v>319.8666679693629</v>
       </c>
       <c r="E29" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44978</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B30" t="n">
-        <v>244.6739963150864</v>
+        <v>157.9916998095915</v>
       </c>
       <c r="C30" t="n">
-        <v>157.3256875540117</v>
+        <v>65.17255486150161</v>
       </c>
       <c r="D30" t="n">
-        <v>333.4589354944537</v>
+        <v>250.8359529363668</v>
       </c>
       <c r="E30" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>44978</v>
@@ -1053,39 +1053,39 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B31" t="n">
-        <v>206.7703880163776</v>
+        <v>242.3934946977642</v>
       </c>
       <c r="C31" t="n">
-        <v>109.7630588166411</v>
+        <v>149.8021073912152</v>
       </c>
       <c r="D31" t="n">
-        <v>301.3410751740208</v>
+        <v>339.6239907669332</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B32" t="n">
-        <v>308.0743516104314</v>
+        <v>206.2361931122526</v>
       </c>
       <c r="C32" t="n">
-        <v>215.8720638566607</v>
+        <v>109.9251732919967</v>
       </c>
       <c r="D32" t="n">
-        <v>403.9706315729408</v>
+        <v>297.2877766605924</v>
       </c>
       <c r="E32" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44985</v>
@@ -1093,81 +1093,101 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="B33" t="n">
-        <v>215.9861276061611</v>
+        <v>308.108191447977</v>
       </c>
       <c r="C33" t="n">
-        <v>116.7151341454117</v>
+        <v>209.1910543674058</v>
       </c>
       <c r="D33" t="n">
-        <v>315.7997098513164</v>
+        <v>411.6052303816224</v>
       </c>
       <c r="E33" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45012</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>233.6758777867694</v>
+        <v>212.182348420636</v>
       </c>
       <c r="C34" t="n">
-        <v>144.4467144443899</v>
+        <v>125.5156151511632</v>
       </c>
       <c r="D34" t="n">
-        <v>333.3930677852585</v>
+        <v>314.8142488237535</v>
       </c>
       <c r="E34" t="n">
         <v>250</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>375.1638248957554</v>
+        <v>232.9110150488686</v>
       </c>
       <c r="C35" t="n">
-        <v>279.3597582734058</v>
+        <v>137.6704167530851</v>
       </c>
       <c r="D35" t="n">
-        <v>476.4395463235242</v>
+        <v>324.6163121929113</v>
       </c>
       <c r="E35" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B36" t="n">
+        <v>378.5005462519883</v>
+      </c>
+      <c r="C36" t="n">
+        <v>280.9136826573529</v>
+      </c>
+      <c r="D36" t="n">
+        <v>465.081203854051</v>
+      </c>
+      <c r="E36" t="n">
+        <v>320</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B36" t="n">
-        <v>525.6937682634192</v>
-      </c>
-      <c r="C36" t="n">
-        <v>426.9832026171529</v>
-      </c>
-      <c r="D36" t="n">
-        <v>620.5497200537891</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="B37" t="n">
+        <v>520.0033144753743</v>
+      </c>
+      <c r="C37" t="n">
+        <v>425.7121755812944</v>
+      </c>
+      <c r="D37" t="n">
+        <v>608.2893562435253</v>
+      </c>
+      <c r="E37" t="n">
         <v>540</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -1237,22 +1257,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1488.822686128804</v>
+        <v>1714.840696473066</v>
       </c>
       <c r="C2" t="n">
-        <v>38.58526514265262</v>
+        <v>41.41063506483649</v>
       </c>
       <c r="D2" t="n">
-        <v>35.1672731676083</v>
+        <v>37.80239426082792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1245796437425046</v>
+        <v>0.1341469177198151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1360554895753557</v>
+        <v>0.1512706063174561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1240647646404816</v>
+        <v>0.1339754302399781</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1263,22 +1283,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1445.871912201519</v>
+        <v>1731.459559277869</v>
       </c>
       <c r="C3" t="n">
-        <v>38.02462244653481</v>
+        <v>41.61081060587343</v>
       </c>
       <c r="D3" t="n">
-        <v>35.73744078582089</v>
+        <v>39.20436290402145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1445160558654133</v>
+        <v>0.1594451121305576</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1723869527992356</v>
+        <v>0.1512706063174561</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1504148261308174</v>
+        <v>0.1675465143327681</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1289,22 +1309,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16486.28736190595</v>
+        <v>17314.12066916787</v>
       </c>
       <c r="C4" t="n">
-        <v>128.3989383207897</v>
+        <v>131.583132160501</v>
       </c>
       <c r="D4" t="n">
-        <v>105.8111778500304</v>
+        <v>107.650055974728</v>
       </c>
       <c r="E4" t="n">
-        <v>1.087625285179813</v>
+        <v>1.091357266036949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5788591423547841</v>
+        <v>0.6097968898879732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7443648312311278</v>
+        <v>0.7668493098412169</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1315,25 +1335,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6817.785921297308</v>
+        <v>2215.30772307678</v>
       </c>
       <c r="C5" t="n">
-        <v>82.56988507499152</v>
+        <v>47.06705560237202</v>
       </c>
       <c r="D5" t="n">
-        <v>64.86796532894186</v>
+        <v>46.14439301431187</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5223010174200594</v>
+        <v>0.2508557900826058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2522720062329392</v>
+        <v>0.2667585925402529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4297069977364332</v>
+        <v>0.2883730167991518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1341,22 +1361,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1348.104978089217</v>
+        <v>1534.275050073489</v>
       </c>
       <c r="C6" t="n">
-        <v>36.71654910376541</v>
+        <v>39.16982320707472</v>
       </c>
       <c r="D6" t="n">
-        <v>32.52720166642902</v>
+        <v>35.13721851148284</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1923106885174992</v>
+        <v>0.2158404137803476</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2270057608474262</v>
+        <v>0.2667585925402529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2158078031549998</v>
+        <v>0.2446739541435792</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1367,22 +1387,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>12346.0782614819</v>
+        <v>12653.45221071923</v>
       </c>
       <c r="C7" t="n">
-        <v>111.112907717699</v>
+        <v>112.4875646936995</v>
       </c>
       <c r="D7" t="n">
-        <v>91.50087626273428</v>
+        <v>92.78742831406521</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4835294829351137</v>
+        <v>0.4791073229370267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3746953049520639</v>
+        <v>0.3753684649900678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4322468150784757</v>
+        <v>0.4367707276781161</v>
       </c>
       <c r="H7" t="n">
         <v>0.5416666666666666</v>
